--- a/Duality_14Bus.xlsx
+++ b/Duality_14Bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup H Drive\0 LYT temp\2020_12-xxxx Inverter Duality\simulation\Case4_MultiInverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C5F4D-5C92-4629-94E6-DC06ADB0E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B2FB5-5CDB-4D55-8240-22AE16B8BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>PLL LPF 500Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The power flow should be calculated at the rated conditions.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +740,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1740,7 +1744,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2325,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2352,8 +2356,8 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>B4*1000/2</f>
-        <v>25000</v>
+        <f>B4*10000/2</f>
+        <v>250000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2508,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A069C-ED43-4024-B36F-59909C1E4179}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2553,6 +2557,11 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Duality_14Bus.xlsx
+++ b/Duality_14Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B2FB5-5CDB-4D55-8240-22AE16B8BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824C767E-AD16-437A-9884-071EAB0B0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1744,7 +1744,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2329,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2356,8 +2356,8 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>B4*10000/2</f>
-        <v>250000</v>
+        <f>B4*1000</f>
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2396,7 +2396,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Duality_14Bus.xlsx
+++ b/Duality_14Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824C767E-AD16-437A-9884-071EAB0B0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07B023-0E23-4966-9B9E-05F5AEFB641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1370,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
